--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">ncs_support</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
@@ -445,34 +445,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>67.6630126235206</v>
+        <v>62.6593872251252</v>
       </c>
       <c r="C2" t="n">
-        <v>64.0326225208888</v>
+        <v>68.4974527697726</v>
       </c>
       <c r="D2" t="n">
-        <v>79.5443331683846</v>
+        <v>72.9828849189934</v>
       </c>
       <c r="E2" t="n">
-        <v>74.5222929936306</v>
+        <v>68.3925019736867</v>
       </c>
       <c r="F2" t="n">
-        <v>67.196700819764</v>
+        <v>62.8980146595866</v>
       </c>
       <c r="G2" t="n">
-        <v>88.7696740497652</v>
+        <v>88.5521997933368</v>
       </c>
       <c r="H2" t="n">
-        <v>56.139774770163</v>
+        <v>64.9478928549642</v>
       </c>
       <c r="I2" t="n">
-        <v>48.5693411164953</v>
+        <v>53.2314809989615</v>
       </c>
       <c r="J2" t="n">
-        <v>74.4289912587384</v>
+        <v>69.8702760956361</v>
       </c>
       <c r="K2" t="n">
-        <v>74.3418424136159</v>
+        <v>64.2343359982491</v>
       </c>
     </row>
     <row r="3">
@@ -480,34 +480,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>68.9191298678415</v>
+        <v>58.3687809451867</v>
       </c>
       <c r="C3" t="n">
-        <v>43.8561973166756</v>
+        <v>48.8849102950605</v>
       </c>
       <c r="D3" t="n">
-        <v>89.5340829412168</v>
+        <v>74.201474861221</v>
       </c>
       <c r="E3" t="n">
-        <v>44.4839857651246</v>
+        <v>57.4895712371069</v>
       </c>
       <c r="F3" t="n">
-        <v>60.9535123039105</v>
+        <v>49.5449102816059</v>
       </c>
       <c r="G3" t="n">
-        <v>84.5114160375521</v>
+        <v>84.4503307037106</v>
       </c>
       <c r="H3" t="n">
-        <v>70.8297587374607</v>
+        <v>65.7641470818065</v>
       </c>
       <c r="I3" t="n">
-        <v>71.8852175635752</v>
+        <v>73.1627422134841</v>
       </c>
       <c r="J3" t="n">
-        <v>51.1382181838328</v>
+        <v>50.2149155370942</v>
       </c>
       <c r="K3" t="n">
-        <v>57.5219412043056</v>
+        <v>49.1759752723299</v>
       </c>
     </row>
     <row r="4">
@@ -515,34 +515,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5440344520105</v>
+        <v>28.0983111257431</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7705517017921</v>
+        <v>24.7343830328542</v>
       </c>
       <c r="D4" t="n">
-        <v>32.919430531924</v>
+        <v>31.8806712446203</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2307692307692</v>
+        <v>30.7338634906238</v>
       </c>
       <c r="F4" t="n">
-        <v>34.7752328545655</v>
+        <v>32.0466849534008</v>
       </c>
       <c r="G4" t="n">
-        <v>44.2406963995702</v>
+        <v>44.7490913750926</v>
       </c>
       <c r="H4" t="n">
-        <v>28.734197049923</v>
+        <v>29.3424910542222</v>
       </c>
       <c r="I4" t="n">
-        <v>23.3140376726054</v>
+        <v>25.3749730927999</v>
       </c>
       <c r="J4" t="n">
-        <v>28.1226794163294</v>
+        <v>28.8705617862581</v>
       </c>
       <c r="K4" t="n">
-        <v>47.6450046907074</v>
+        <v>45.3232561771689</v>
       </c>
     </row>
     <row r="5">
@@ -550,34 +550,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>43.4349344205629</v>
+        <v>43.4497018132177</v>
       </c>
       <c r="C5" t="n">
-        <v>41.643801701884</v>
+        <v>37.3066014028881</v>
       </c>
       <c r="D5" t="n">
-        <v>46.3397371700122</v>
+        <v>42.6118118202031</v>
       </c>
       <c r="E5" t="n">
-        <v>34.6939759036145</v>
+        <v>37.2567879409896</v>
       </c>
       <c r="F5" t="n">
-        <v>37.2036277712602</v>
+        <v>41.4842433226089</v>
       </c>
       <c r="G5" t="n">
-        <v>53.9631306292741</v>
+        <v>54.572257848152</v>
       </c>
       <c r="H5" t="n">
-        <v>43.4656591255881</v>
+        <v>44.2617708760319</v>
       </c>
       <c r="I5" t="n">
-        <v>50.2684593832825</v>
+        <v>40.3187741846308</v>
       </c>
       <c r="J5" t="n">
-        <v>41.1177423525112</v>
+        <v>41.4598451519837</v>
       </c>
       <c r="K5" t="n">
-        <v>57.7087123777162</v>
+        <v>44.0522950263322</v>
       </c>
     </row>
     <row r="6">
@@ -585,34 +585,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>83.2769577000596</v>
+        <v>79.2172926112797</v>
       </c>
       <c r="C6" t="n">
-        <v>73.7776805087992</v>
+        <v>76.1415569927894</v>
       </c>
       <c r="D6" t="n">
-        <v>79.6346385802911</v>
+        <v>79.4685372403072</v>
       </c>
       <c r="E6" t="n">
-        <v>55.1330798479087</v>
+        <v>70.7273722780202</v>
       </c>
       <c r="F6" t="n">
-        <v>76.4224715919422</v>
+        <v>71.8801908296159</v>
       </c>
       <c r="G6" t="n">
-        <v>88.2444411188671</v>
+        <v>88.0362728009305</v>
       </c>
       <c r="H6" t="n">
-        <v>69.9870841312594</v>
+        <v>70.1108947890267</v>
       </c>
       <c r="I6" t="n">
-        <v>79.925235737027</v>
+        <v>72.3911380335843</v>
       </c>
       <c r="J6" t="n">
-        <v>57.0020320757786</v>
+        <v>59.8699761297328</v>
       </c>
       <c r="K6" t="n">
-        <v>89.5052643455372</v>
+        <v>66.0721983664074</v>
       </c>
     </row>
     <row r="7">
@@ -620,34 +620,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>75.1021760153459</v>
+        <v>59.9088248771922</v>
       </c>
       <c r="C7" t="n">
-        <v>74.1457027551676</v>
+        <v>64.5501299065432</v>
       </c>
       <c r="D7" t="n">
-        <v>92.2255090489955</v>
+        <v>79.4530381277022</v>
       </c>
       <c r="E7" t="n">
-        <v>78.4313725490196</v>
+        <v>62.5242731445997</v>
       </c>
       <c r="F7" t="n">
-        <v>79.1486974708192</v>
+        <v>58.8160974105242</v>
       </c>
       <c r="G7" t="n">
-        <v>88.5544512178713</v>
+        <v>87.2110712092897</v>
       </c>
       <c r="H7" t="n">
-        <v>79.8579927901068</v>
+        <v>76.9294368973077</v>
       </c>
       <c r="I7" t="n">
-        <v>72.2997350007419</v>
+        <v>74.9580713561081</v>
       </c>
       <c r="J7" t="n">
-        <v>66.1643142092702</v>
+        <v>70.1139236471705</v>
       </c>
       <c r="K7" t="n">
-        <v>79.6515644133716</v>
+        <v>54.6983814392583</v>
       </c>
     </row>
     <row r="8">
@@ -655,34 +655,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>76.6688299611329</v>
+        <v>76.0500881133356</v>
       </c>
       <c r="C8" t="n">
-        <v>77.2505560087666</v>
+        <v>75.8618127980539</v>
       </c>
       <c r="D8" t="n">
-        <v>84.1738661158664</v>
+        <v>80.9490412766813</v>
       </c>
       <c r="E8" t="n">
-        <v>57.9545454545455</v>
+        <v>67.7841401466591</v>
       </c>
       <c r="F8" t="n">
-        <v>75.0906930285769</v>
+        <v>56.2619372634919</v>
       </c>
       <c r="G8" t="n">
-        <v>85.6590169079531</v>
+        <v>86.974581204702</v>
       </c>
       <c r="H8" t="n">
-        <v>74.9223952011629</v>
+        <v>79.3845222480011</v>
       </c>
       <c r="I8" t="n">
-        <v>46.5808087326347</v>
+        <v>52.2846998626103</v>
       </c>
       <c r="J8" t="n">
-        <v>60.4528492482926</v>
+        <v>70.821798823452</v>
       </c>
       <c r="K8" t="n">
-        <v>68.921994195011</v>
+        <v>56.5226745460006</v>
       </c>
     </row>
     <row r="9">
@@ -690,34 +690,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>69.7458945794952</v>
+        <v>73.6647609454859</v>
       </c>
       <c r="C9" t="n">
-        <v>62.4692418859929</v>
+        <v>62.9236462887567</v>
       </c>
       <c r="D9" t="n">
-        <v>90.658692697538</v>
+        <v>82.5778518939202</v>
       </c>
       <c r="E9" t="n">
-        <v>56.390977443609</v>
+        <v>67.5758568401985</v>
       </c>
       <c r="F9" t="n">
-        <v>43.0212285799268</v>
+        <v>62.1475253244649</v>
       </c>
       <c r="G9" t="n">
-        <v>90.517648562136</v>
+        <v>85.8327777598929</v>
       </c>
       <c r="H9" t="n">
-        <v>51.882248165969</v>
+        <v>68.7598853246759</v>
       </c>
       <c r="I9" t="n">
-        <v>47.8610314282717</v>
+        <v>55.1757110868948</v>
       </c>
       <c r="J9" t="n">
-        <v>60.4537631893693</v>
+        <v>57.9992651628614</v>
       </c>
       <c r="K9" t="n">
-        <v>54.5249007779869</v>
+        <v>59.3704596101895</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the National Climate Scheme</t>
@@ -60,20 +66,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>
@@ -439,285 +445,339 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>62.6593872251252</v>
+        <v>65.3145536033419</v>
       </c>
       <c r="C2" t="n">
-        <v>68.4974527697726</v>
+        <v>67.3033866161644</v>
       </c>
       <c r="D2" t="n">
-        <v>72.9828849189934</v>
+        <v>62.5310374623142</v>
       </c>
       <c r="E2" t="n">
-        <v>68.3925019736867</v>
+        <v>66.7612493873731</v>
       </c>
       <c r="F2" t="n">
-        <v>62.8980146595866</v>
+        <v>72.2511114450971</v>
       </c>
       <c r="G2" t="n">
-        <v>88.5521997933368</v>
+        <v>63.6858453137374</v>
       </c>
       <c r="H2" t="n">
-        <v>64.9478928549642</v>
+        <v>65.9052681098505</v>
       </c>
       <c r="I2" t="n">
-        <v>53.2314809989615</v>
+        <v>72.1052800603692</v>
       </c>
       <c r="J2" t="n">
-        <v>69.8702760956361</v>
+        <v>57.6435400801332</v>
       </c>
       <c r="K2" t="n">
-        <v>64.2343359982491</v>
+        <v>68.428382957242</v>
+      </c>
+      <c r="L2" t="n">
+        <v>87.5883628737241</v>
+      </c>
+      <c r="M2" t="n">
+        <v>59.0443516616424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>58.3687809451867</v>
+        <v>56.754323751711</v>
       </c>
       <c r="C3" t="n">
-        <v>48.8849102950605</v>
+        <v>59.7794694596153</v>
       </c>
       <c r="D3" t="n">
-        <v>74.201474861221</v>
+        <v>64.0426345714967</v>
       </c>
       <c r="E3" t="n">
-        <v>57.4895712371069</v>
+        <v>53.7182465430094</v>
       </c>
       <c r="F3" t="n">
-        <v>49.5449102816059</v>
+        <v>76.5245267205996</v>
       </c>
       <c r="G3" t="n">
-        <v>84.4503307037106</v>
+        <v>47.7120255513006</v>
       </c>
       <c r="H3" t="n">
-        <v>65.7641470818065</v>
+        <v>63.8620067965069</v>
       </c>
       <c r="I3" t="n">
-        <v>73.1627422134841</v>
+        <v>55.3489741967407</v>
       </c>
       <c r="J3" t="n">
-        <v>50.2149155370942</v>
+        <v>64.499986052833</v>
       </c>
       <c r="K3" t="n">
-        <v>49.1759752723299</v>
+        <v>57.4451138422302</v>
+      </c>
+      <c r="L3" t="n">
+        <v>84.3704507366347</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48.4884018122719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0983111257431</v>
+        <v>34.4223697059018</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7343830328542</v>
+        <v>28.0933225043131</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8806712446203</v>
+        <v>27.8740862116903</v>
       </c>
       <c r="E4" t="n">
-        <v>30.7338634906238</v>
+        <v>24.2450377399565</v>
       </c>
       <c r="F4" t="n">
-        <v>32.0466849534008</v>
+        <v>29.6381381192017</v>
       </c>
       <c r="G4" t="n">
-        <v>44.7490913750926</v>
+        <v>32.5687362667485</v>
       </c>
       <c r="H4" t="n">
-        <v>29.3424910542222</v>
+        <v>29.3934984553033</v>
       </c>
       <c r="I4" t="n">
-        <v>25.3749730927999</v>
+        <v>28.5897032651773</v>
       </c>
       <c r="J4" t="n">
-        <v>28.8705617862581</v>
+        <v>25.3836196160946</v>
       </c>
       <c r="K4" t="n">
-        <v>45.3232561771689</v>
+        <v>30.7233792103148</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.3612242553041</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42.5831644321879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>43.4497018132177</v>
+        <v>42.6339247198305</v>
       </c>
       <c r="C5" t="n">
-        <v>37.3066014028881</v>
+        <v>42.9078860780305</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6118118202031</v>
+        <v>44.9684545300185</v>
       </c>
       <c r="E5" t="n">
-        <v>37.2567879409896</v>
+        <v>38.8158538785384</v>
       </c>
       <c r="F5" t="n">
-        <v>41.4842433226089</v>
+        <v>44.3210438096182</v>
       </c>
       <c r="G5" t="n">
-        <v>54.572257848152</v>
+        <v>41.8652463575139</v>
       </c>
       <c r="H5" t="n">
-        <v>44.2617708760319</v>
+        <v>43.6667443148801</v>
       </c>
       <c r="I5" t="n">
-        <v>40.3187741846308</v>
+        <v>44.8490591475934</v>
       </c>
       <c r="J5" t="n">
-        <v>41.4598451519837</v>
+        <v>43.5894238759031</v>
       </c>
       <c r="K5" t="n">
-        <v>44.0522950263322</v>
+        <v>37.2083991619577</v>
+      </c>
+      <c r="L5" t="n">
+        <v>54.9074576078928</v>
+      </c>
+      <c r="M5" t="n">
+        <v>43.3314817860707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>79.2172926112797</v>
+        <v>68.6333714661057</v>
       </c>
       <c r="C6" t="n">
-        <v>76.1415569927894</v>
+        <v>73.2568518381731</v>
       </c>
       <c r="D6" t="n">
-        <v>79.4685372403072</v>
+        <v>72.9387006469668</v>
       </c>
       <c r="E6" t="n">
-        <v>70.7273722780202</v>
+        <v>79.5227909512516</v>
       </c>
       <c r="F6" t="n">
-        <v>71.8801908296159</v>
+        <v>81.0066598327969</v>
       </c>
       <c r="G6" t="n">
-        <v>88.0362728009305</v>
+        <v>72.1329487470904</v>
       </c>
       <c r="H6" t="n">
-        <v>70.1108947890267</v>
+        <v>71.0664241541981</v>
       </c>
       <c r="I6" t="n">
-        <v>72.3911380335843</v>
+        <v>60.5700242231491</v>
       </c>
       <c r="J6" t="n">
-        <v>59.8699761297328</v>
+        <v>79.8495233096214</v>
       </c>
       <c r="K6" t="n">
-        <v>66.0721983664074</v>
+        <v>70.2416523998435</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89.3008178148918</v>
+      </c>
+      <c r="M6" t="n">
+        <v>61.6396117731248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>59.9088248771922</v>
+        <v>63.2353139872231</v>
       </c>
       <c r="C7" t="n">
-        <v>64.5501299065432</v>
+        <v>68.4596063722009</v>
       </c>
       <c r="D7" t="n">
-        <v>79.4530381277022</v>
+        <v>59.859514390681</v>
       </c>
       <c r="E7" t="n">
-        <v>62.5242731445997</v>
+        <v>68.8729992801481</v>
       </c>
       <c r="F7" t="n">
-        <v>58.8160974105242</v>
+        <v>77.3913280373066</v>
       </c>
       <c r="G7" t="n">
-        <v>87.2110712092897</v>
+        <v>56.9208017183719</v>
       </c>
       <c r="H7" t="n">
-        <v>76.9294368973077</v>
+        <v>77.4071195652432</v>
       </c>
       <c r="I7" t="n">
-        <v>74.9580713561081</v>
+        <v>70.0567275778412</v>
       </c>
       <c r="J7" t="n">
-        <v>70.1139236471705</v>
+        <v>65.7064163599474</v>
       </c>
       <c r="K7" t="n">
-        <v>54.6983814392583</v>
+        <v>62.9335666233676</v>
+      </c>
+      <c r="L7" t="n">
+        <v>86.8652307111913</v>
+      </c>
+      <c r="M7" t="n">
+        <v>55.8049679130303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>76.0500881133356</v>
+        <v>68.0177730018411</v>
       </c>
       <c r="C8" t="n">
-        <v>75.8618127980539</v>
+        <v>74.2506413791143</v>
       </c>
       <c r="D8" t="n">
-        <v>80.9490412766813</v>
+        <v>77.2298835227584</v>
       </c>
       <c r="E8" t="n">
-        <v>67.7841401466591</v>
+        <v>77.1710657536277</v>
       </c>
       <c r="F8" t="n">
-        <v>56.2619372634919</v>
+        <v>83.576078106873</v>
       </c>
       <c r="G8" t="n">
-        <v>86.974581204702</v>
+        <v>57.2291891867279</v>
       </c>
       <c r="H8" t="n">
-        <v>79.3845222480011</v>
+        <v>75.9684431106597</v>
       </c>
       <c r="I8" t="n">
-        <v>52.2846998626103</v>
+        <v>66.5874077362106</v>
       </c>
       <c r="J8" t="n">
-        <v>70.821798823452</v>
+        <v>63.6214070751137</v>
       </c>
       <c r="K8" t="n">
-        <v>56.5226745460006</v>
+        <v>68.3815028404537</v>
+      </c>
+      <c r="L8" t="n">
+        <v>87.6279562861453</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.498465862827</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>73.6647609454859</v>
+        <v>64.657523399647</v>
       </c>
       <c r="C9" t="n">
-        <v>62.9236462887567</v>
+        <v>68.6341592834307</v>
       </c>
       <c r="D9" t="n">
-        <v>82.5778518939202</v>
+        <v>76.3354482942999</v>
       </c>
       <c r="E9" t="n">
-        <v>67.5758568401985</v>
+        <v>62.5629214636311</v>
       </c>
       <c r="F9" t="n">
-        <v>62.1475253244649</v>
+        <v>82.8328142052132</v>
       </c>
       <c r="G9" t="n">
-        <v>85.8327777598929</v>
+        <v>63.1915592739711</v>
       </c>
       <c r="H9" t="n">
-        <v>68.7598853246759</v>
+        <v>68.7903398382735</v>
       </c>
       <c r="I9" t="n">
-        <v>55.1757110868948</v>
+        <v>61.5295008577396</v>
       </c>
       <c r="J9" t="n">
-        <v>57.9992651628614</v>
+        <v>63.3866033570636</v>
       </c>
       <c r="K9" t="n">
-        <v>59.3704596101895</v>
+        <v>67.0626415102122</v>
+      </c>
+      <c r="L9" t="n">
+        <v>86.8304556451837</v>
+      </c>
+      <c r="M9" t="n">
+        <v>57.082525561926</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -457,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>65.3145536033419</v>
+        <v>66.3005802221808</v>
       </c>
       <c r="C2" t="n">
-        <v>67.3033866161644</v>
+        <v>66.8566209304191</v>
       </c>
       <c r="D2" t="n">
-        <v>62.5310374623142</v>
+        <v>61.9845777208619</v>
       </c>
       <c r="E2" t="n">
-        <v>66.7612493873731</v>
+        <v>67.7515359382176</v>
       </c>
       <c r="F2" t="n">
-        <v>72.2511114450971</v>
+        <v>72.5284491905449</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6858453137374</v>
+        <v>62.3347021614265</v>
       </c>
       <c r="H2" t="n">
-        <v>65.9052681098505</v>
+        <v>67.4679379494221</v>
       </c>
       <c r="I2" t="n">
-        <v>72.1052800603692</v>
+        <v>68.2728443032381</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6435400801332</v>
+        <v>53.4656693493887</v>
       </c>
       <c r="K2" t="n">
-        <v>68.428382957242</v>
+        <v>68.1433597197012</v>
       </c>
       <c r="L2" t="n">
-        <v>87.5883628737241</v>
+        <v>87.6358643506975</v>
       </c>
       <c r="M2" t="n">
-        <v>59.0443516616424</v>
+        <v>62.2263966424466</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56.754323751711</v>
+        <v>56.7188307427554</v>
       </c>
       <c r="C3" t="n">
-        <v>59.7794694596153</v>
+        <v>59.5420842023054</v>
       </c>
       <c r="D3" t="n">
-        <v>64.0426345714967</v>
+        <v>63.5292411561426</v>
       </c>
       <c r="E3" t="n">
-        <v>53.7182465430094</v>
+        <v>53.507608223129</v>
       </c>
       <c r="F3" t="n">
-        <v>76.5245267205996</v>
+        <v>76.9451131960516</v>
       </c>
       <c r="G3" t="n">
-        <v>47.7120255513006</v>
+        <v>48.7904886430868</v>
       </c>
       <c r="H3" t="n">
-        <v>63.8620067965069</v>
+        <v>64.6662045840836</v>
       </c>
       <c r="I3" t="n">
-        <v>55.3489741967407</v>
+        <v>52.6510112210816</v>
       </c>
       <c r="J3" t="n">
-        <v>64.499986052833</v>
+        <v>62.5700279010501</v>
       </c>
       <c r="K3" t="n">
-        <v>57.4451138422302</v>
+        <v>57.3187073709986</v>
       </c>
       <c r="L3" t="n">
-        <v>84.3704507366347</v>
+        <v>84.6049047609271</v>
       </c>
       <c r="M3" t="n">
-        <v>48.4884018122719</v>
+        <v>49.3944604758857</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +539,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34.4223697059018</v>
+        <v>35.1605718448467</v>
       </c>
       <c r="C4" t="n">
-        <v>28.0933225043131</v>
+        <v>27.5973109768541</v>
       </c>
       <c r="D4" t="n">
-        <v>27.8740862116903</v>
+        <v>27.3819169552489</v>
       </c>
       <c r="E4" t="n">
-        <v>24.2450377399565</v>
+        <v>23.8029429473581</v>
       </c>
       <c r="F4" t="n">
-        <v>29.6381381192017</v>
+        <v>29.5361273364106</v>
       </c>
       <c r="G4" t="n">
-        <v>32.5687362667485</v>
+        <v>32.4118963098679</v>
       </c>
       <c r="H4" t="n">
-        <v>29.3934984553033</v>
+        <v>28.7162329313837</v>
       </c>
       <c r="I4" t="n">
-        <v>28.5897032651773</v>
+        <v>27.5365961977514</v>
       </c>
       <c r="J4" t="n">
-        <v>25.3836196160946</v>
+        <v>26.0997233552131</v>
       </c>
       <c r="K4" t="n">
-        <v>30.7233792103148</v>
+        <v>30.7580330175846</v>
       </c>
       <c r="L4" t="n">
-        <v>45.3612242553041</v>
+        <v>45.4091539061278</v>
       </c>
       <c r="M4" t="n">
-        <v>42.5831644321879</v>
+        <v>44.6726120873387</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +580,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>42.6339247198305</v>
+        <v>42.6651421172646</v>
       </c>
       <c r="C5" t="n">
-        <v>42.9078860780305</v>
+        <v>42.3104171934666</v>
       </c>
       <c r="D5" t="n">
-        <v>44.9684545300185</v>
+        <v>44.251875827686</v>
       </c>
       <c r="E5" t="n">
-        <v>38.8158538785384</v>
+        <v>38.9472648682053</v>
       </c>
       <c r="F5" t="n">
-        <v>44.3210438096182</v>
+        <v>43.1625982508618</v>
       </c>
       <c r="G5" t="n">
-        <v>41.8652463575139</v>
+        <v>41.7568157671271</v>
       </c>
       <c r="H5" t="n">
-        <v>43.6667443148801</v>
+        <v>43.6240094020982</v>
       </c>
       <c r="I5" t="n">
-        <v>44.8490591475934</v>
+        <v>42.9437654681786</v>
       </c>
       <c r="J5" t="n">
-        <v>43.5894238759031</v>
+        <v>44.7726212583426</v>
       </c>
       <c r="K5" t="n">
-        <v>37.2083991619577</v>
+        <v>37.1894180359108</v>
       </c>
       <c r="L5" t="n">
-        <v>54.9074576078928</v>
+        <v>54.8868174089149</v>
       </c>
       <c r="M5" t="n">
-        <v>43.3314817860707</v>
+        <v>44.1487613204886</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +621,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>68.6333714661057</v>
+        <v>70.6041825583575</v>
       </c>
       <c r="C6" t="n">
-        <v>73.2568518381731</v>
+        <v>73.129803059076</v>
       </c>
       <c r="D6" t="n">
-        <v>72.9387006469668</v>
+        <v>72.7498942934659</v>
       </c>
       <c r="E6" t="n">
-        <v>79.5227909512516</v>
+        <v>78.9504635514083</v>
       </c>
       <c r="F6" t="n">
-        <v>81.0066598327969</v>
+        <v>80.5557424176577</v>
       </c>
       <c r="G6" t="n">
-        <v>72.1329487470904</v>
+        <v>72.0077760686355</v>
       </c>
       <c r="H6" t="n">
-        <v>71.0664241541981</v>
+        <v>72.6359854016397</v>
       </c>
       <c r="I6" t="n">
-        <v>60.5700242231491</v>
+        <v>60.6573972693472</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8495233096214</v>
+        <v>78.779732896461</v>
       </c>
       <c r="K6" t="n">
-        <v>70.2416523998435</v>
+        <v>70.1897252986994</v>
       </c>
       <c r="L6" t="n">
-        <v>89.3008178148918</v>
+        <v>89.6069999222711</v>
       </c>
       <c r="M6" t="n">
-        <v>61.6396117731248</v>
+        <v>66.4283633514775</v>
       </c>
     </row>
     <row r="7">
@@ -662,40 +662,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>63.2353139872231</v>
+        <v>65.1597070186574</v>
       </c>
       <c r="C7" t="n">
-        <v>68.4596063722009</v>
+        <v>68.0324564723715</v>
       </c>
       <c r="D7" t="n">
-        <v>59.859514390681</v>
+        <v>59.7986013142994</v>
       </c>
       <c r="E7" t="n">
-        <v>68.8729992801481</v>
+        <v>68.195123184171</v>
       </c>
       <c r="F7" t="n">
-        <v>77.3913280373066</v>
+        <v>80.5458066814054</v>
       </c>
       <c r="G7" t="n">
-        <v>56.9208017183719</v>
+        <v>58.0466040127206</v>
       </c>
       <c r="H7" t="n">
-        <v>77.4071195652432</v>
+        <v>76.9634734479661</v>
       </c>
       <c r="I7" t="n">
-        <v>70.0567275778412</v>
+        <v>65.3239087865577</v>
       </c>
       <c r="J7" t="n">
-        <v>65.7064163599474</v>
+        <v>65.431742155192</v>
       </c>
       <c r="K7" t="n">
-        <v>62.9335666233676</v>
+        <v>62.9995293195343</v>
       </c>
       <c r="L7" t="n">
-        <v>86.8652307111913</v>
+        <v>87.5000615572334</v>
       </c>
       <c r="M7" t="n">
-        <v>55.8049679130303</v>
+        <v>60.9623493848696</v>
       </c>
     </row>
     <row r="8">
@@ -703,40 +703,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>68.0177730018411</v>
+        <v>68.6398868484946</v>
       </c>
       <c r="C8" t="n">
-        <v>74.2506413791143</v>
+        <v>73.6330415549282</v>
       </c>
       <c r="D8" t="n">
-        <v>77.2298835227584</v>
+        <v>75.9143211244513</v>
       </c>
       <c r="E8" t="n">
-        <v>77.1710657536277</v>
+        <v>77.2516709880343</v>
       </c>
       <c r="F8" t="n">
-        <v>83.576078106873</v>
+        <v>82.4062489070946</v>
       </c>
       <c r="G8" t="n">
-        <v>57.2291891867279</v>
+        <v>57.5061436015004</v>
       </c>
       <c r="H8" t="n">
-        <v>75.9684431106597</v>
+        <v>77.6673070561148</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5874077362106</v>
+        <v>63.2905421198659</v>
       </c>
       <c r="J8" t="n">
-        <v>63.6214070751137</v>
+        <v>65.8815573176929</v>
       </c>
       <c r="K8" t="n">
-        <v>68.3815028404537</v>
+        <v>68.4293334926366</v>
       </c>
       <c r="L8" t="n">
-        <v>87.6279562861453</v>
+        <v>86.5036107524227</v>
       </c>
       <c r="M8" t="n">
-        <v>57.498465862827</v>
+        <v>61.2890876920247</v>
       </c>
     </row>
     <row r="9">
@@ -744,40 +744,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>64.657523399647</v>
+        <v>65.2449169456294</v>
       </c>
       <c r="C9" t="n">
-        <v>68.6341592834307</v>
+        <v>67.8123158338504</v>
       </c>
       <c r="D9" t="n">
-        <v>76.3354482942999</v>
+        <v>74.1559688392613</v>
       </c>
       <c r="E9" t="n">
-        <v>62.5629214636311</v>
+        <v>62.8237965531377</v>
       </c>
       <c r="F9" t="n">
-        <v>82.8328142052132</v>
+        <v>83.693951905074</v>
       </c>
       <c r="G9" t="n">
-        <v>63.1915592739711</v>
+        <v>61.950827367926</v>
       </c>
       <c r="H9" t="n">
-        <v>68.7903398382735</v>
+        <v>68.7673444477691</v>
       </c>
       <c r="I9" t="n">
-        <v>61.5295008577396</v>
+        <v>58.481860058857</v>
       </c>
       <c r="J9" t="n">
-        <v>63.3866033570636</v>
+        <v>60.0596583733675</v>
       </c>
       <c r="K9" t="n">
-        <v>67.0626415102122</v>
+        <v>67.1246837505236</v>
       </c>
       <c r="L9" t="n">
-        <v>86.8304556451837</v>
+        <v>87.0785953799257</v>
       </c>
       <c r="M9" t="n">
-        <v>57.082525561926</v>
+        <v>59.3216638124922</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -66,20 +66,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
-                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
-                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
+*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
+*High color: High + Distributive effects displayed using colors on world map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
+*Mid: Global South + China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
+*Low: Global South + EU)</t>
   </si>
 </sst>
 </file>
@@ -457,31 +457,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>66.3005802221808</v>
+        <v>66.1036722833492</v>
       </c>
       <c r="C2" t="n">
-        <v>66.8566209304191</v>
+        <v>66.7783924141804</v>
       </c>
       <c r="D2" t="n">
         <v>61.9845777208619</v>
       </c>
       <c r="E2" t="n">
-        <v>67.7515359382176</v>
+        <v>68.654571695664</v>
       </c>
       <c r="F2" t="n">
-        <v>72.5284491905449</v>
+        <v>72.9149757060565</v>
       </c>
       <c r="G2" t="n">
         <v>62.3347021614265</v>
       </c>
       <c r="H2" t="n">
-        <v>67.4679379494221</v>
+        <v>67.353719370047</v>
       </c>
       <c r="I2" t="n">
-        <v>68.2728443032381</v>
+        <v>66.4965123651615</v>
       </c>
       <c r="J2" t="n">
-        <v>53.4656693493887</v>
+        <v>53.5212409476305</v>
       </c>
       <c r="K2" t="n">
         <v>68.1433597197012</v>
@@ -490,7 +490,7 @@
         <v>87.6358643506975</v>
       </c>
       <c r="M2" t="n">
-        <v>62.2263966424466</v>
+        <v>61.7830664136398</v>
       </c>
     </row>
     <row r="3">
@@ -498,31 +498,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56.7188307427554</v>
+        <v>55.6397895159913</v>
       </c>
       <c r="C3" t="n">
-        <v>59.5420842023054</v>
+        <v>59.8385761272752</v>
       </c>
       <c r="D3" t="n">
         <v>63.5292411561426</v>
       </c>
       <c r="E3" t="n">
-        <v>53.507608223129</v>
+        <v>53.400299859363</v>
       </c>
       <c r="F3" t="n">
-        <v>76.9451131960516</v>
+        <v>77.2842012385981</v>
       </c>
       <c r="G3" t="n">
         <v>48.7904886430868</v>
       </c>
       <c r="H3" t="n">
-        <v>64.6662045840836</v>
+        <v>65.3372172173408</v>
       </c>
       <c r="I3" t="n">
-        <v>52.6510112210816</v>
+        <v>53.0087197505916</v>
       </c>
       <c r="J3" t="n">
-        <v>62.5700279010501</v>
+        <v>63.0232518060541</v>
       </c>
       <c r="K3" t="n">
         <v>57.3187073709986</v>
@@ -531,7 +531,7 @@
         <v>84.6049047609271</v>
       </c>
       <c r="M3" t="n">
-        <v>49.3944604758857</v>
+        <v>45.8184570589519</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +539,31 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>35.1605718448467</v>
+        <v>35.1141014545863</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5973109768541</v>
+        <v>27.6633852111035</v>
       </c>
       <c r="D4" t="n">
         <v>27.3819169552489</v>
       </c>
       <c r="E4" t="n">
-        <v>23.8029429473581</v>
+        <v>24.380250296693</v>
       </c>
       <c r="F4" t="n">
-        <v>29.5361273364106</v>
+        <v>29.5785526480387</v>
       </c>
       <c r="G4" t="n">
         <v>32.4118963098679</v>
       </c>
       <c r="H4" t="n">
-        <v>28.7162329313837</v>
+        <v>28.6472871585359</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5365961977514</v>
+        <v>27.1893445864172</v>
       </c>
       <c r="J4" t="n">
-        <v>26.0997233552131</v>
+        <v>25.8845451284831</v>
       </c>
       <c r="K4" t="n">
         <v>30.7580330175846</v>
@@ -572,7 +572,7 @@
         <v>45.4091539061278</v>
       </c>
       <c r="M4" t="n">
-        <v>44.6726120873387</v>
+        <v>44.4293951520934</v>
       </c>
     </row>
     <row r="5">
@@ -580,31 +580,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>42.6651421172646</v>
+        <v>41.9873929493001</v>
       </c>
       <c r="C5" t="n">
-        <v>42.3104171934666</v>
+        <v>42.1715346405757</v>
       </c>
       <c r="D5" t="n">
         <v>44.251875827686</v>
       </c>
       <c r="E5" t="n">
-        <v>38.9472648682053</v>
+        <v>38.7374982409203</v>
       </c>
       <c r="F5" t="n">
-        <v>43.1625982508618</v>
+        <v>43.3146762581329</v>
       </c>
       <c r="G5" t="n">
         <v>41.7568157671271</v>
       </c>
       <c r="H5" t="n">
-        <v>43.6240094020982</v>
+        <v>43.0038892990848</v>
       </c>
       <c r="I5" t="n">
-        <v>42.9437654681786</v>
+        <v>42.7391448977195</v>
       </c>
       <c r="J5" t="n">
-        <v>44.7726212583426</v>
+        <v>44.8467299156933</v>
       </c>
       <c r="K5" t="n">
         <v>37.1894180359108</v>
@@ -613,7 +613,7 @@
         <v>54.8868174089149</v>
       </c>
       <c r="M5" t="n">
-        <v>44.1487613204886</v>
+        <v>42.5306342230128</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +621,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>70.6041825583575</v>
+        <v>69.2721656438609</v>
       </c>
       <c r="C6" t="n">
-        <v>73.129803059076</v>
+        <v>73.2585171309042</v>
       </c>
       <c r="D6" t="n">
         <v>72.7498942934659</v>
       </c>
       <c r="E6" t="n">
-        <v>78.9504635514083</v>
+        <v>79.6480019699949</v>
       </c>
       <c r="F6" t="n">
-        <v>80.5557424176577</v>
+        <v>79.5398268462392</v>
       </c>
       <c r="G6" t="n">
         <v>72.0077760686355</v>
       </c>
       <c r="H6" t="n">
-        <v>72.6359854016397</v>
+        <v>73.4192028656965</v>
       </c>
       <c r="I6" t="n">
-        <v>60.6573972693472</v>
+        <v>60.7217483757996</v>
       </c>
       <c r="J6" t="n">
-        <v>78.779732896461</v>
+        <v>77.9728828213442</v>
       </c>
       <c r="K6" t="n">
         <v>70.1897252986994</v>
       </c>
       <c r="L6" t="n">
-        <v>89.6069999222711</v>
+        <v>89.606999922271</v>
       </c>
       <c r="M6" t="n">
-        <v>66.4283633514775</v>
+        <v>62.9657334899789</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>65.1597070186574</v>
+        <v>61.9194188819647</v>
       </c>
       <c r="C7" t="n">
-        <v>68.0324564723715</v>
+        <v>67.2710679655062</v>
       </c>
       <c r="D7" t="n">
         <v>59.7986013142994</v>
       </c>
       <c r="E7" t="n">
-        <v>68.195123184171</v>
+        <v>67.2814135417663</v>
       </c>
       <c r="F7" t="n">
-        <v>80.5458066814054</v>
+        <v>80.1383055797017</v>
       </c>
       <c r="G7" t="n">
-        <v>58.0466040127206</v>
+        <v>58.0466040127207</v>
       </c>
       <c r="H7" t="n">
-        <v>76.9634734479661</v>
+        <v>76.8392463607422</v>
       </c>
       <c r="I7" t="n">
-        <v>65.3239087865577</v>
+        <v>62.6438087621243</v>
       </c>
       <c r="J7" t="n">
-        <v>65.431742155192</v>
+        <v>65.5085287839802</v>
       </c>
       <c r="K7" t="n">
         <v>62.9995293195343</v>
@@ -695,7 +695,7 @@
         <v>87.5000615572334</v>
       </c>
       <c r="M7" t="n">
-        <v>60.9623493848696</v>
+        <v>53.8633671055717</v>
       </c>
     </row>
     <row r="8">
@@ -703,31 +703,31 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>68.6398868484946</v>
+        <v>68.608382336033</v>
       </c>
       <c r="C8" t="n">
-        <v>73.6330415549282</v>
+        <v>73.7747865623621</v>
       </c>
       <c r="D8" t="n">
         <v>75.9143211244513</v>
       </c>
       <c r="E8" t="n">
-        <v>77.2516709880343</v>
+        <v>77.7821500341743</v>
       </c>
       <c r="F8" t="n">
-        <v>82.4062489070946</v>
+        <v>82.7125282124079</v>
       </c>
       <c r="G8" t="n">
         <v>57.5061436015004</v>
       </c>
       <c r="H8" t="n">
-        <v>77.6673070561148</v>
+        <v>77.562574141932</v>
       </c>
       <c r="I8" t="n">
-        <v>63.2905421198659</v>
+        <v>63.0929544265643</v>
       </c>
       <c r="J8" t="n">
-        <v>65.8815573176929</v>
+        <v>65.441209520763</v>
       </c>
       <c r="K8" t="n">
         <v>68.4293334926366</v>
@@ -736,7 +736,7 @@
         <v>86.5036107524227</v>
       </c>
       <c r="M8" t="n">
-        <v>61.2890876920247</v>
+        <v>60.5245040069312</v>
       </c>
     </row>
     <row r="9">
@@ -744,40 +744,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>65.2449169456294</v>
+        <v>64.8106046830804</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8123158338504</v>
+        <v>67.8750882052422</v>
       </c>
       <c r="D9" t="n">
         <v>74.1559688392613</v>
       </c>
       <c r="E9" t="n">
-        <v>62.8237965531377</v>
+        <v>62.5479356463123</v>
       </c>
       <c r="F9" t="n">
-        <v>83.693951905074</v>
+        <v>84.0392863268597</v>
       </c>
       <c r="G9" t="n">
         <v>61.950827367926</v>
       </c>
       <c r="H9" t="n">
-        <v>68.7673444477691</v>
+        <v>68.6586942883502</v>
       </c>
       <c r="I9" t="n">
-        <v>58.481860058857</v>
+        <v>58.4505049639036</v>
       </c>
       <c r="J9" t="n">
-        <v>60.0596583733675</v>
+        <v>62.7024126401683</v>
       </c>
       <c r="K9" t="n">
-        <v>67.1246837505236</v>
+        <v>67.1246837505235</v>
       </c>
       <c r="L9" t="n">
         <v>87.0785953799257</v>
       </c>
       <c r="M9" t="n">
-        <v>59.3216638124922</v>
+        <v>58.0464492256474</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -66,20 +66,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>
@@ -457,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>66.1036722833492</v>
+        <v>66.8231429651844</v>
       </c>
       <c r="C2" t="n">
-        <v>66.7783924141804</v>
+        <v>67.020617815144</v>
       </c>
       <c r="D2" t="n">
-        <v>61.9845777208619</v>
+        <v>62.9079779253022</v>
       </c>
       <c r="E2" t="n">
-        <v>68.654571695664</v>
+        <v>68.1285342656029</v>
       </c>
       <c r="F2" t="n">
-        <v>72.9149757060565</v>
+        <v>73.6786911140013</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3347021614265</v>
+        <v>63.0205415502153</v>
       </c>
       <c r="H2" t="n">
-        <v>67.353719370047</v>
+        <v>68.2343665589436</v>
       </c>
       <c r="I2" t="n">
-        <v>66.4965123651615</v>
+        <v>67.9834695991865</v>
       </c>
       <c r="J2" t="n">
-        <v>53.5212409476305</v>
+        <v>56.8856640741188</v>
       </c>
       <c r="K2" t="n">
-        <v>68.1433597197012</v>
+        <v>68.0300269927708</v>
       </c>
       <c r="L2" t="n">
-        <v>87.6358643506975</v>
+        <v>88.1587749198114</v>
       </c>
       <c r="M2" t="n">
-        <v>61.7830664136398</v>
+        <v>63.5058226978132</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>55.6397895159913</v>
+        <v>56.2469086058611</v>
       </c>
       <c r="C3" t="n">
-        <v>59.8385761272752</v>
+        <v>59.9468647210559</v>
       </c>
       <c r="D3" t="n">
-        <v>63.5292411561426</v>
+        <v>63.2700981847943</v>
       </c>
       <c r="E3" t="n">
-        <v>53.400299859363</v>
+        <v>53.6530840379051</v>
       </c>
       <c r="F3" t="n">
-        <v>77.2842012385981</v>
+        <v>77.6556203940037</v>
       </c>
       <c r="G3" t="n">
-        <v>48.7904886430868</v>
+        <v>49.9398713953255</v>
       </c>
       <c r="H3" t="n">
-        <v>65.3372172173408</v>
+        <v>67.6466651572672</v>
       </c>
       <c r="I3" t="n">
-        <v>53.0087197505916</v>
+        <v>55.4546523457725</v>
       </c>
       <c r="J3" t="n">
-        <v>63.0232518060541</v>
+        <v>64.6525383954498</v>
       </c>
       <c r="K3" t="n">
-        <v>57.3187073709986</v>
+        <v>57.3517481952712</v>
       </c>
       <c r="L3" t="n">
-        <v>84.6049047609271</v>
+        <v>84.4269389541221</v>
       </c>
       <c r="M3" t="n">
-        <v>45.8184570589519</v>
+        <v>48.076068246158</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +539,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>35.1141014545863</v>
+        <v>34.5323403400661</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6633852111035</v>
+        <v>27.5903204528277</v>
       </c>
       <c r="D4" t="n">
-        <v>27.3819169552489</v>
+        <v>27.2294748169102</v>
       </c>
       <c r="E4" t="n">
-        <v>24.380250296693</v>
+        <v>24.2325377234806</v>
       </c>
       <c r="F4" t="n">
-        <v>29.5785526480387</v>
+        <v>29.6762973985407</v>
       </c>
       <c r="G4" t="n">
-        <v>32.4118963098679</v>
+        <v>32.5372156021431</v>
       </c>
       <c r="H4" t="n">
-        <v>28.6472871585359</v>
+        <v>29.0525401507393</v>
       </c>
       <c r="I4" t="n">
-        <v>27.1893445864172</v>
+        <v>27.5805700985755</v>
       </c>
       <c r="J4" t="n">
-        <v>25.8845451284831</v>
+        <v>25.6949653187643</v>
       </c>
       <c r="K4" t="n">
-        <v>30.7580330175846</v>
+        <v>30.647815935588</v>
       </c>
       <c r="L4" t="n">
-        <v>45.4091539061278</v>
+        <v>45.8491347721866</v>
       </c>
       <c r="M4" t="n">
-        <v>44.4293951520934</v>
+        <v>43.0012991761723</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +580,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>41.9873929493001</v>
+        <v>41.9066210507506</v>
       </c>
       <c r="C5" t="n">
-        <v>42.1715346405757</v>
+        <v>42.2779098485253</v>
       </c>
       <c r="D5" t="n">
-        <v>44.251875827686</v>
+        <v>44.470418822047</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7374982409203</v>
+        <v>38.7919654365498</v>
       </c>
       <c r="F5" t="n">
-        <v>43.3146762581329</v>
+        <v>43.2099455377032</v>
       </c>
       <c r="G5" t="n">
-        <v>41.7568157671271</v>
+        <v>41.3978517628264</v>
       </c>
       <c r="H5" t="n">
-        <v>43.0038892990848</v>
+        <v>42.7237401465426</v>
       </c>
       <c r="I5" t="n">
-        <v>42.7391448977195</v>
+        <v>42.5457041997942</v>
       </c>
       <c r="J5" t="n">
-        <v>44.8467299156933</v>
+        <v>47.0291536672558</v>
       </c>
       <c r="K5" t="n">
-        <v>37.1894180359108</v>
+        <v>37.201299617047</v>
       </c>
       <c r="L5" t="n">
-        <v>54.8868174089149</v>
+        <v>54.540958857809</v>
       </c>
       <c r="M5" t="n">
-        <v>42.5306342230128</v>
+        <v>42.0380642096372</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +621,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>69.2721656438609</v>
+        <v>69.424848349627</v>
       </c>
       <c r="C6" t="n">
-        <v>73.2585171309042</v>
+        <v>73.3627701085428</v>
       </c>
       <c r="D6" t="n">
-        <v>72.7498942934659</v>
+        <v>74.8167047886158</v>
       </c>
       <c r="E6" t="n">
-        <v>79.6480019699949</v>
+        <v>78.4241465070953</v>
       </c>
       <c r="F6" t="n">
-        <v>79.5398268462392</v>
+        <v>78.8397130847818</v>
       </c>
       <c r="G6" t="n">
-        <v>72.0077760686355</v>
+        <v>72.2699048322857</v>
       </c>
       <c r="H6" t="n">
-        <v>73.4192028656965</v>
+        <v>75.1109170132264</v>
       </c>
       <c r="I6" t="n">
-        <v>60.7217483757996</v>
+        <v>60.3043337669705</v>
       </c>
       <c r="J6" t="n">
-        <v>77.9728828213442</v>
+        <v>74.0325267195033</v>
       </c>
       <c r="K6" t="n">
-        <v>70.1897252986994</v>
+        <v>70.1481006948373</v>
       </c>
       <c r="L6" t="n">
-        <v>89.606999922271</v>
+        <v>90.0654906679775</v>
       </c>
       <c r="M6" t="n">
-        <v>62.9657334899789</v>
+        <v>62.8888757986847</v>
       </c>
     </row>
     <row r="7">
@@ -662,40 +662,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>61.9194188819647</v>
+        <v>62.9679873354797</v>
       </c>
       <c r="C7" t="n">
-        <v>67.2710679655062</v>
+        <v>67.256268949996</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7986013142994</v>
+        <v>60.4730488644622</v>
       </c>
       <c r="E7" t="n">
-        <v>67.2814135417663</v>
+        <v>68.6899000412559</v>
       </c>
       <c r="F7" t="n">
-        <v>80.1383055797017</v>
+        <v>79.4761890940301</v>
       </c>
       <c r="G7" t="n">
-        <v>58.0466040127207</v>
+        <v>56.7344935799568</v>
       </c>
       <c r="H7" t="n">
-        <v>76.8392463607422</v>
+        <v>75.1999931481979</v>
       </c>
       <c r="I7" t="n">
-        <v>62.6438087621243</v>
+        <v>63.0609719571066</v>
       </c>
       <c r="J7" t="n">
-        <v>65.5085287839802</v>
+        <v>63.9468610733133</v>
       </c>
       <c r="K7" t="n">
-        <v>62.9995293195343</v>
+        <v>62.3553312644136</v>
       </c>
       <c r="L7" t="n">
-        <v>87.5000615572334</v>
+        <v>87.2000915084034</v>
       </c>
       <c r="M7" t="n">
-        <v>53.8633671055717</v>
+        <v>56.4529722619259</v>
       </c>
     </row>
     <row r="8">
@@ -703,40 +703,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>68.608382336033</v>
+        <v>67.9117157344711</v>
       </c>
       <c r="C8" t="n">
-        <v>73.7747865623621</v>
+        <v>74.0996912656026</v>
       </c>
       <c r="D8" t="n">
-        <v>75.9143211244513</v>
+        <v>75.9824976861691</v>
       </c>
       <c r="E8" t="n">
-        <v>77.7821500341743</v>
+        <v>75.9795886529205</v>
       </c>
       <c r="F8" t="n">
-        <v>82.7125282124079</v>
+        <v>82.0911143552899</v>
       </c>
       <c r="G8" t="n">
-        <v>57.5061436015004</v>
+        <v>57.844321296245</v>
       </c>
       <c r="H8" t="n">
-        <v>77.562574141932</v>
+        <v>77.6869379998253</v>
       </c>
       <c r="I8" t="n">
-        <v>63.0929544265643</v>
+        <v>64.9904150870825</v>
       </c>
       <c r="J8" t="n">
-        <v>65.441209520763</v>
+        <v>66.169163789345</v>
       </c>
       <c r="K8" t="n">
-        <v>68.4293334926366</v>
+        <v>68.0870870197065</v>
       </c>
       <c r="L8" t="n">
-        <v>86.5036107524227</v>
+        <v>86.5707126249889</v>
       </c>
       <c r="M8" t="n">
-        <v>60.5245040069312</v>
+        <v>57.7626018357045</v>
       </c>
     </row>
     <row r="9">
@@ -744,40 +744,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>64.8106046830804</v>
+        <v>65.4858753737023</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8750882052422</v>
+        <v>67.8833830058313</v>
       </c>
       <c r="D9" t="n">
-        <v>74.1559688392613</v>
+        <v>74.0987064843566</v>
       </c>
       <c r="E9" t="n">
-        <v>62.5479356463123</v>
+        <v>61.1729510032421</v>
       </c>
       <c r="F9" t="n">
-        <v>84.0392863268597</v>
+        <v>84.8527289283848</v>
       </c>
       <c r="G9" t="n">
-        <v>61.950827367926</v>
+        <v>61.8758199978058</v>
       </c>
       <c r="H9" t="n">
-        <v>68.6586942883502</v>
+        <v>69.984614298203</v>
       </c>
       <c r="I9" t="n">
-        <v>58.4505049639036</v>
+        <v>63.2164237605811</v>
       </c>
       <c r="J9" t="n">
-        <v>62.7024126401683</v>
+        <v>62.0506322096469</v>
       </c>
       <c r="K9" t="n">
-        <v>67.1246837505235</v>
+        <v>67.2484523865818</v>
       </c>
       <c r="L9" t="n">
-        <v>87.0785953799257</v>
+        <v>86.9585511765621</v>
       </c>
       <c r="M9" t="n">
-        <v>58.0464492256474</v>
+        <v>60.3335582728202</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -59,11 +59,20 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
   </si>
   <si>
     <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
@@ -72,14 +81,6 @@
   <si>
     <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
                                      '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>
@@ -457,40 +458,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>66.8231429651844</v>
+        <v>66.4226512802836</v>
       </c>
       <c r="C2" t="n">
-        <v>67.020617815144</v>
+        <v>65.7193301686884</v>
       </c>
       <c r="D2" t="n">
-        <v>62.9079779253022</v>
+        <v>63.2178756299858</v>
       </c>
       <c r="E2" t="n">
-        <v>68.1285342656029</v>
+        <v>62.5788710577029</v>
       </c>
       <c r="F2" t="n">
-        <v>73.6786911140013</v>
+        <v>73.7750703446263</v>
       </c>
       <c r="G2" t="n">
-        <v>63.0205415502153</v>
+        <v>55.7958636289971</v>
       </c>
       <c r="H2" t="n">
-        <v>68.2343665589436</v>
+        <v>68.9928868694489</v>
       </c>
       <c r="I2" t="n">
-        <v>67.9834695991865</v>
+        <v>69.5057232484879</v>
       </c>
       <c r="J2" t="n">
-        <v>56.8856640741188</v>
+        <v>57.7523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>68.0300269927708</v>
+        <v>67.9794880829724</v>
       </c>
       <c r="L2" t="n">
-        <v>88.1587749198114</v>
+        <v>88.0240645828152</v>
       </c>
       <c r="M2" t="n">
-        <v>63.5058226978132</v>
+        <v>64.0316340570691</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56.2469086058611</v>
+        <v>56.9461678435988</v>
       </c>
       <c r="C3" t="n">
-        <v>59.9468647210559</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="D3" t="n">
-        <v>63.2700981847943</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="E3" t="n">
-        <v>53.6530840379051</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="F3" t="n">
-        <v>77.6556203940037</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="G3" t="n">
-        <v>49.9398713953255</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="H3" t="n">
-        <v>67.6466651572672</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="I3" t="n">
-        <v>55.4546523457725</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="J3" t="n">
-        <v>64.6525383954498</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="K3" t="n">
-        <v>57.3517481952712</v>
+        <v>56.8487902138407</v>
       </c>
       <c r="L3" t="n">
-        <v>84.4269389541221</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="M3" t="n">
-        <v>48.076068246158</v>
+        <v>48.604165854654</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5323403400661</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5903204528277</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2294748169102</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E4" t="n">
-        <v>24.2325377234806</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F4" t="n">
-        <v>29.6762973985407</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G4" t="n">
-        <v>32.5372156021431</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H4" t="n">
-        <v>29.0525401507393</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5805700985755</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J4" t="n">
-        <v>25.6949653187643</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K4" t="n">
-        <v>30.647815935588</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L4" t="n">
-        <v>45.8491347721866</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M4" t="n">
-        <v>43.0012991761723</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +581,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>41.9066210507506</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C5" t="n">
-        <v>42.2779098485253</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D5" t="n">
-        <v>44.470418822047</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7919654365498</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F5" t="n">
-        <v>43.2099455377032</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G5" t="n">
-        <v>41.3978517628264</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H5" t="n">
-        <v>42.7237401465426</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I5" t="n">
-        <v>42.5457041997942</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J5" t="n">
-        <v>47.0291536672558</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K5" t="n">
-        <v>37.201299617047</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L5" t="n">
-        <v>54.540958857809</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M5" t="n">
-        <v>42.0380642096372</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +622,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>69.424848349627</v>
+        <v>65.7757973018818</v>
       </c>
       <c r="C6" t="n">
-        <v>73.3627701085428</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="D6" t="n">
-        <v>74.8167047886158</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="E6" t="n">
-        <v>78.4241465070953</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="F6" t="n">
-        <v>78.8397130847818</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="G6" t="n">
-        <v>72.2699048322857</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="H6" t="n">
-        <v>75.1109170132264</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="I6" t="n">
-        <v>60.3043337669705</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="J6" t="n">
-        <v>74.0325267195033</v>
+        <v>61.691572049826</v>
       </c>
       <c r="K6" t="n">
-        <v>70.1481006948373</v>
+        <v>66.5884503407556</v>
       </c>
       <c r="L6" t="n">
-        <v>90.0654906679775</v>
+        <v>86.9712358856764</v>
       </c>
       <c r="M6" t="n">
-        <v>62.8888757986847</v>
+        <v>60.3307739305438</v>
       </c>
     </row>
     <row r="7">
@@ -662,40 +663,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>62.9679873354797</v>
+        <v>67.6120341228827</v>
       </c>
       <c r="C7" t="n">
-        <v>67.256268949996</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4730488644622</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="E7" t="n">
-        <v>68.6899000412559</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="F7" t="n">
-        <v>79.4761890940301</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="G7" t="n">
-        <v>56.7344935799568</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="H7" t="n">
-        <v>75.1999931481979</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="I7" t="n">
-        <v>63.0609719571066</v>
+        <v>67.466334415845</v>
       </c>
       <c r="J7" t="n">
-        <v>63.9468610733133</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="K7" t="n">
-        <v>62.3553312644136</v>
+        <v>67.2922348590199</v>
       </c>
       <c r="L7" t="n">
-        <v>87.2000915084034</v>
+        <v>86.513074970901</v>
       </c>
       <c r="M7" t="n">
-        <v>56.4529722619259</v>
+        <v>58.9366541153335</v>
       </c>
     </row>
     <row r="8">
@@ -703,40 +704,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>67.9117157344711</v>
+        <v>69.9010110708032</v>
       </c>
       <c r="C8" t="n">
-        <v>74.0996912656026</v>
+        <v>73.33558792255</v>
       </c>
       <c r="D8" t="n">
-        <v>75.9824976861691</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="E8" t="n">
-        <v>75.9795886529205</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="F8" t="n">
-        <v>82.0911143552899</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="G8" t="n">
-        <v>57.844321296245</v>
+        <v>71.308717218709</v>
       </c>
       <c r="H8" t="n">
-        <v>77.6869379998253</v>
+        <v>74.199477200258</v>
       </c>
       <c r="I8" t="n">
-        <v>64.9904150870825</v>
+        <v>62.534539350272</v>
       </c>
       <c r="J8" t="n">
-        <v>66.169163789345</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="K8" t="n">
-        <v>68.0870870197065</v>
+        <v>70.796250180037</v>
       </c>
       <c r="L8" t="n">
-        <v>86.5707126249889</v>
+        <v>90.518282762834</v>
       </c>
       <c r="M8" t="n">
-        <v>57.7626018357045</v>
+        <v>63.6481822477839</v>
       </c>
     </row>
     <row r="9">
@@ -744,40 +745,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>65.4858753737023</v>
+        <v>63.2380148473265</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8833830058313</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="D9" t="n">
-        <v>74.0987064843566</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="E9" t="n">
-        <v>61.1729510032421</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="F9" t="n">
-        <v>84.8527289283848</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="G9" t="n">
-        <v>61.8758199978058</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="H9" t="n">
-        <v>69.984614298203</v>
+        <v>77.4540600482755</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2164237605811</v>
+        <v>66.1815968025775</v>
       </c>
       <c r="J9" t="n">
-        <v>62.0506322096469</v>
+        <v>64.7145596361043</v>
       </c>
       <c r="K9" t="n">
-        <v>67.2484523865818</v>
+        <v>63.3776677259688</v>
       </c>
       <c r="L9" t="n">
-        <v>86.9585511765621</v>
+        <v>87.5032786022504</v>
       </c>
       <c r="M9" t="n">
-        <v>60.3335582728202</v>
+        <v>56.0366948341141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS support in own country</t>
@@ -499,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56.9461678435988</v>
+        <v>56.4056918460414</v>
       </c>
       <c r="C3" t="n">
-        <v>61.0914766632881</v>
+        <v>62.6104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>64.9673122291722</v>
+        <v>62.6241772243332</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4385977368577</v>
+        <v>57.0221595439767</v>
       </c>
       <c r="F3" t="n">
-        <v>77.6272593268426</v>
+        <v>75.9965330571316</v>
       </c>
       <c r="G3" t="n">
-        <v>50.6505049421928</v>
+        <v>52.4189689399028</v>
       </c>
       <c r="H3" t="n">
-        <v>68.1637766424686</v>
+        <v>68.9559121142826</v>
       </c>
       <c r="I3" t="n">
-        <v>58.1054438205453</v>
+        <v>59.3921918987369</v>
       </c>
       <c r="J3" t="n">
-        <v>62.3284705512702</v>
+        <v>61.0888816467228</v>
       </c>
       <c r="K3" t="n">
-        <v>56.8487902138407</v>
+        <v>54.4832237727142</v>
       </c>
       <c r="L3" t="n">
-        <v>84.6671870687128</v>
+        <v>84.5249604687817</v>
       </c>
       <c r="M3" t="n">
-        <v>48.604165854654</v>
+        <v>47.7176118933856</v>
       </c>
     </row>
     <row r="4">

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -452,13 +455,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>66.4226512802836</v>
+        <v>67.9579005629342</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -488,59 +494,65 @@
         <v>67.9794880829724</v>
       </c>
       <c r="L2" t="n">
+        <v>74.5408968197829</v>
+      </c>
+      <c r="M2" t="n">
         <v>88.0240645828152</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>64.0316340570691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>56.4056918460414</v>
+        <v>55.4258283605262</v>
       </c>
       <c r="C3" t="n">
         <v>62.6104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>62.6241772243332</v>
+        <v>62.4391933320713</v>
       </c>
       <c r="E3" t="n">
-        <v>57.0221595439767</v>
+        <v>56.9361201319161</v>
       </c>
       <c r="F3" t="n">
-        <v>75.9965330571316</v>
+        <v>75.8885638793477</v>
       </c>
       <c r="G3" t="n">
-        <v>52.4189689399028</v>
+        <v>52.2608728926402</v>
       </c>
       <c r="H3" t="n">
-        <v>68.9559121142826</v>
+        <v>68.9643842296669</v>
       </c>
       <c r="I3" t="n">
-        <v>59.3921918987369</v>
+        <v>59.3498631932549</v>
       </c>
       <c r="J3" t="n">
-        <v>61.0888816467228</v>
+        <v>60.9943712759195</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4832237727142</v>
+        <v>54.3385352183665</v>
       </c>
       <c r="L3" t="n">
-        <v>84.5249604687817</v>
+        <v>49.005949459479</v>
       </c>
       <c r="M3" t="n">
-        <v>47.7176118933856</v>
+        <v>84.5259319958112</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47.6499434449555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -570,15 +582,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L4" t="n">
+        <v>36.4507822486976</v>
+      </c>
+      <c r="M4" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>34.7728459875887</v>
@@ -610,19 +625,20 @@
       <c r="K5" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>65.7757973018818</v>
+        <v>64.6020160692236</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -652,18 +668,21 @@
         <v>66.5884503407556</v>
       </c>
       <c r="L6" t="n">
+        <v>56.6004208236377</v>
+      </c>
+      <c r="M6" t="n">
         <v>86.9712358856764</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>60.3307739305438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.6120341228827</v>
+        <v>67.3589957678886</v>
       </c>
       <c r="C7" t="n">
         <v>73.1501666372061</v>
@@ -693,18 +712,21 @@
         <v>67.2922348590199</v>
       </c>
       <c r="L7" t="n">
+        <v>64.9824905118065</v>
+      </c>
+      <c r="M7" t="n">
         <v>86.513074970901</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>58.9366541153335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>69.9010110708032</v>
+        <v>68.5061536753791</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -734,18 +756,21 @@
         <v>70.796250180037</v>
       </c>
       <c r="L8" t="n">
+        <v>60.7672609910995</v>
+      </c>
+      <c r="M8" t="n">
         <v>90.518282762834</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>63.6481822477839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>63.2380148473265</v>
+        <v>61.9858273857402</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -775,9 +800,12 @@
         <v>63.3776677259688</v>
       </c>
       <c r="L9" t="n">
+        <v>55.4489061890469</v>
+      </c>
+      <c r="M9" t="n">
         <v>87.5032786022504</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>56.0366948341141</v>
       </c>
     </row>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>67.9579005629342</v>
+        <v>67.8679804978435</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -491,16 +491,16 @@
         <v>57.7523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>67.9794880829724</v>
+        <v>67.987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>74.5408968197829</v>
+        <v>74.0846263450239</v>
       </c>
       <c r="M2" t="n">
         <v>88.0240645828152</v>
       </c>
       <c r="N2" t="n">
-        <v>64.0316340570691</v>
+        <v>64.0735542026883</v>
       </c>
     </row>
     <row r="3">
@@ -508,43 +508,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>55.4258283605262</v>
+        <v>55.3718303775116</v>
       </c>
       <c r="C3" t="n">
         <v>62.6104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>62.4391933320713</v>
+        <v>62.4687190278941</v>
       </c>
       <c r="E3" t="n">
-        <v>56.9361201319161</v>
+        <v>56.9498424923018</v>
       </c>
       <c r="F3" t="n">
-        <v>75.8885638793477</v>
+        <v>75.9057679811368</v>
       </c>
       <c r="G3" t="n">
-        <v>52.2608728926402</v>
+        <v>52.2861429260387</v>
       </c>
       <c r="H3" t="n">
-        <v>68.9643842296669</v>
+        <v>68.963033430472</v>
       </c>
       <c r="I3" t="n">
-        <v>59.3498631932549</v>
+        <v>59.3566149815293</v>
       </c>
       <c r="J3" t="n">
-        <v>60.9943712759195</v>
+        <v>61.0091501584142</v>
       </c>
       <c r="K3" t="n">
-        <v>54.3385352183665</v>
+        <v>54.3669469571705</v>
       </c>
       <c r="L3" t="n">
-        <v>49.005949459479</v>
+        <v>48.9608113420232</v>
       </c>
       <c r="M3" t="n">
-        <v>84.5259319958112</v>
+        <v>84.5257807486015</v>
       </c>
       <c r="N3" t="n">
-        <v>47.6499434449555</v>
+        <v>47.6878037078152</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -579,16 +579,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L4" t="n">
-        <v>36.4507822486976</v>
+        <v>36.2756650802989</v>
       </c>
       <c r="M4" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N4" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C5" t="n">
         <v>28.1800572752332</v>
@@ -623,14 +623,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K5" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N5" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>64.6020160692236</v>
+        <v>64.7240480131028</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -665,16 +665,16 @@
         <v>61.691572049826</v>
       </c>
       <c r="K6" t="n">
-        <v>66.5884503407556</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="L6" t="n">
-        <v>56.6004208236377</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="M6" t="n">
         <v>86.9712358856764</v>
       </c>
       <c r="N6" t="n">
-        <v>60.3307739305438</v>
+        <v>60.3471262597791</v>
       </c>
     </row>
     <row r="7">
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.3589957678886</v>
+        <v>67.2054760884641</v>
       </c>
       <c r="C7" t="n">
-        <v>73.1501666372061</v>
+        <v>73.150166637206</v>
       </c>
       <c r="D7" t="n">
         <v>75.9578759812179</v>
@@ -709,16 +709,16 @@
         <v>63.7890555129928</v>
       </c>
       <c r="K7" t="n">
-        <v>67.2922348590199</v>
+        <v>67.292535125419</v>
       </c>
       <c r="L7" t="n">
-        <v>64.9824905118065</v>
+        <v>63.9033952437169</v>
       </c>
       <c r="M7" t="n">
         <v>86.513074970901</v>
       </c>
       <c r="N7" t="n">
-        <v>58.9366541153335</v>
+        <v>58.9468339412676</v>
       </c>
     </row>
     <row r="8">
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>68.5061536753791</v>
+        <v>68.518253119246</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -753,16 +753,16 @@
         <v>74.3491876231661</v>
       </c>
       <c r="K8" t="n">
-        <v>70.796250180037</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="L8" t="n">
-        <v>60.7672609910995</v>
+        <v>60.4866837966034</v>
       </c>
       <c r="M8" t="n">
         <v>90.518282762834</v>
       </c>
       <c r="N8" t="n">
-        <v>63.6481822477839</v>
+        <v>63.6828257869627</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>61.9858273857402</v>
+        <v>61.895417279981</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -797,16 +797,16 @@
         <v>64.7145596361043</v>
       </c>
       <c r="K9" t="n">
-        <v>63.3776677259688</v>
+        <v>63.3861854984241</v>
       </c>
       <c r="L9" t="n">
-        <v>55.4489061890469</v>
+        <v>54.11746546684</v>
       </c>
       <c r="M9" t="n">
         <v>87.5032786022504</v>
       </c>
       <c r="N9" t="n">
-        <v>56.0366948341141</v>
+        <v>56.0767240057917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_mean.xlsx
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -494,7 +494,7 @@
         <v>67.987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>74.0846263450239</v>
+        <v>73.9047667329172</v>
       </c>
       <c r="M2" t="n">
         <v>88.0240645828152</v>
@@ -508,43 +508,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>55.3718303775116</v>
+        <v>55.3746767090015</v>
       </c>
       <c r="C3" t="n">
         <v>62.6104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>62.4687190278941</v>
+        <v>62.2273519140294</v>
       </c>
       <c r="E3" t="n">
-        <v>56.9498424923018</v>
+        <v>56.7933697165467</v>
       </c>
       <c r="F3" t="n">
-        <v>75.9057679811368</v>
+        <v>75.7304011850663</v>
       </c>
       <c r="G3" t="n">
-        <v>52.2861429260387</v>
+        <v>53.058303552895</v>
       </c>
       <c r="H3" t="n">
-        <v>68.963033430472</v>
+        <v>68.9059343539561</v>
       </c>
       <c r="I3" t="n">
-        <v>59.3566149815293</v>
+        <v>59.3195783835747</v>
       </c>
       <c r="J3" t="n">
-        <v>61.0091501584142</v>
+        <v>62.3575700142156</v>
       </c>
       <c r="K3" t="n">
-        <v>54.3669469571705</v>
+        <v>54.8090076208069</v>
       </c>
       <c r="L3" t="n">
-        <v>48.9608113420232</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="M3" t="n">
-        <v>84.5257807486015</v>
+        <v>84.6428606188793</v>
       </c>
       <c r="N3" t="n">
-        <v>47.6878037078152</v>
+        <v>47.4912333237318</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -582,7 +582,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L4" t="n">
-        <v>36.2756650802989</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M4" t="n">
         <v>54.6783899296328</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>64.7240480131028</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.2054760884641</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C7" t="n">
-        <v>73.150166637206</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D7" t="n">
         <v>75.9578759812179</v>
@@ -712,7 +712,7 @@
         <v>67.292535125419</v>
       </c>
       <c r="L7" t="n">
-        <v>63.9033952437169</v>
+        <v>63.442019211072</v>
       </c>
       <c r="M7" t="n">
         <v>86.513074970901</v>
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>68.518253119246</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -756,7 +756,7 @@
         <v>70.8149579691965</v>
       </c>
       <c r="L8" t="n">
-        <v>60.4866837966034</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="M8" t="n">
         <v>90.518282762834</v>
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>61.895417279981</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -800,7 +800,7 @@
         <v>63.3861854984241</v>
       </c>
       <c r="L9" t="n">
-        <v>54.11746546684</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="M9" t="n">
         <v>87.5032786022504</v>
